--- a/sprints.xlsx
+++ b/sprints.xlsx
@@ -289,7 +289,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,6 +306,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +663,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +741,7 @@
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>42602</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="19">
         <v>42602</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="19">
         <v>42602</v>
       </c>
     </row>
@@ -859,7 +859,7 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="19">
         <v>42602</v>
       </c>
     </row>
@@ -889,7 +889,7 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="19">
         <v>42602</v>
       </c>
     </row>
@@ -953,7 +953,7 @@
       <c r="J9" s="10">
         <v>42616</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -971,7 +971,7 @@
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
@@ -981,10 +981,12 @@
       <c r="I10" s="2">
         <v>0.1</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="19">
         <v>42616</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="20">
+        <v>8.6111111111111124E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1012,7 +1014,7 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="19">
         <v>42616</v>
       </c>
     </row>
@@ -1042,7 +1044,7 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>42616</v>
       </c>
     </row>
@@ -1075,7 +1077,7 @@
       <c r="J13" s="10">
         <v>42616</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1121,7 +1123,7 @@
       <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="7"/>
@@ -1137,7 +1139,7 @@
       <c r="J15" s="10">
         <v>42630</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1199,7 +1201,7 @@
       <c r="J17" s="10">
         <v>42630</v>
       </c>
-      <c r="K17" s="14"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1261,7 +1263,7 @@
       <c r="J19" s="10">
         <v>42630</v>
       </c>
-      <c r="K19" s="14"/>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1323,7 +1325,7 @@
       <c r="J21" s="10">
         <v>42643</v>
       </c>
-      <c r="K21" s="14"/>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -1385,7 +1387,7 @@
       <c r="J23" s="10">
         <v>42643</v>
       </c>
-      <c r="K23" s="14"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1434,7 +1436,7 @@
       <c r="E25" s="7">
         <v>16</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1447,7 +1449,7 @@
       <c r="J25" s="10">
         <v>42658</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -1496,7 +1498,7 @@
       <c r="E27" s="7">
         <v>16</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="7" t="s">
         <v>49</v>
       </c>
@@ -1509,7 +1511,7 @@
       <c r="J27" s="10">
         <v>42658</v>
       </c>
-      <c r="K27" s="14"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -1541,25 +1543,25 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/sprints.xlsx
+++ b/sprints.xlsx
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -307,6 +307,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +669,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +990,7 @@
       <c r="J10" s="19">
         <v>42616</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="21">
         <v>8.6111111111111124E-2</v>
       </c>
     </row>
@@ -1077,7 +1083,9 @@
       <c r="J13" s="10">
         <v>42616</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="22">
+        <v>4.8611111111111112E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">

--- a/sprints.xlsx
+++ b/sprints.xlsx
@@ -669,7 +669,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1084,7 @@
         <v>42616</v>
       </c>
       <c r="K13" s="22">
-        <v>4.8611111111111112E-2</v>
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">

--- a/sprints.xlsx
+++ b/sprints.xlsx
@@ -1084,7 +1084,7 @@
         <v>42616</v>
       </c>
       <c r="K13" s="22">
-        <v>9.0277777777777776E-2</v>
+        <v>0.15277777777777776</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">

--- a/sprints.xlsx
+++ b/sprints.xlsx
@@ -144,9 +144,6 @@
     <t>Criar tela alterar senha</t>
   </si>
   <si>
-    <t>Criar tela Consultar Denúncias</t>
-  </si>
-  <si>
     <t>16, 15</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Vainer/ Matheus</t>
+  </si>
+  <si>
+    <t>Criar tela Consultar Denúncias (e Cadastro para teste)</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +311,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,7 +678,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -750,6 +753,7 @@
       <c r="J2" s="19">
         <v>42602</v>
       </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -778,6 +782,7 @@
       <c r="J3" s="19">
         <v>42602</v>
       </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -808,6 +813,9 @@
       <c r="J4" s="6">
         <v>42602</v>
       </c>
+      <c r="K4" s="21">
+        <v>0.18055555555555555</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -838,6 +846,9 @@
       <c r="J5" s="19">
         <v>42602</v>
       </c>
+      <c r="K5" s="21">
+        <v>0.27083333333333331</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -868,6 +879,9 @@
       <c r="J6" s="19">
         <v>42602</v>
       </c>
+      <c r="K6" s="21">
+        <v>0.20833333333333334</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -898,6 +912,9 @@
       <c r="J7" s="19">
         <v>42602</v>
       </c>
+      <c r="K7" s="21">
+        <v>0.18055555555555555</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -928,7 +945,7 @@
       <c r="J8" s="6">
         <v>42602</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -959,7 +976,7 @@
       <c r="J9" s="10">
         <v>42616</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -975,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="1" t="s">
@@ -1023,6 +1040,9 @@
       <c r="J11" s="19">
         <v>42616</v>
       </c>
+      <c r="K11" s="21">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1053,13 +1073,16 @@
       <c r="J12" s="19">
         <v>42616</v>
       </c>
+      <c r="K12" s="21">
+        <v>2.7777777777777776E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>6</v>
@@ -1084,7 +1107,7 @@
         <v>42616</v>
       </c>
       <c r="K13" s="22">
-        <v>0.15277777777777776</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1116,7 +1139,9 @@
       <c r="J14" s="6">
         <v>42630</v>
       </c>
-      <c r="K14" s="12"/>
+      <c r="K14" s="23">
+        <v>9.375E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
@@ -1132,7 +1157,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="9" t="s">
@@ -1147,7 +1172,9 @@
       <c r="J15" s="10">
         <v>42630</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1178,7 +1205,7 @@
       <c r="J16" s="6">
         <v>42630</v>
       </c>
-      <c r="K16" s="12"/>
+      <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -1194,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="9" t="s">
@@ -1209,7 +1236,7 @@
       <c r="J17" s="10">
         <v>42630</v>
       </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1318,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="9" t="s">
@@ -1349,11 +1376,11 @@
         <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>18</v>
@@ -1380,11 +1407,11 @@
         <v>8</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>17</v>
@@ -1415,7 +1442,7 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -1446,7 +1473,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>18</v>
@@ -1477,7 +1504,7 @@
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
@@ -1508,7 +1535,7 @@
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>17</v>
@@ -1526,10 +1553,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
@@ -1537,10 +1564,10 @@
       <c r="E28" s="3"/>
       <c r="F28" s="12"/>
       <c r="G28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>

--- a/sprints.xlsx
+++ b/sprints.xlsx
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
         <v>42616</v>
       </c>
       <c r="K10" s="20">
-        <v>8.6111111111111124E-2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
